--- a/data/trans_orig/IMC_inf_MED_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_MED_R-Provincia-trans_orig.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">

--- a/data/trans_orig/IMC_inf_MED_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_MED_R-Provincia-trans_orig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2012" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
